--- a/temp.xlsx
+++ b/temp.xlsx
@@ -12,15 +12,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>John Smith</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>PT. Lawencon</t>
+  </si>
+  <si>
+    <t>Wisma Stacko Lt.5</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Usia</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Telpon</t>
+  </si>
+  <si>
+    <t>Kubro</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Jl. Besar</t>
+  </si>
+  <si>
+    <t>021-123456</t>
+  </si>
+  <si>
+    <t>Pengky</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Jl. Bersih</t>
+  </si>
+  <si>
+    <t>021-654321</t>
+  </si>
+  <si>
+    <t>Dudung</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Jl. Sesama</t>
+  </si>
+  <si>
+    <t>021-456789</t>
+  </si>
+  <si>
+    <t>Jakarta, 2019-09-23</t>
+  </si>
+  <si>
+    <t>(...........................)</t>
   </si>
 </sst>
 </file>
@@ -28,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="18">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -38,29 +89,87 @@
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -68,14 +177,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true"/>
     </xf>
   </cellXfs>
@@ -89,25 +271,81 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="23.4375" customWidth="true"/>
-    <col min="2" max="2" width="15.625" customWidth="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+    <row r="4">
+      <c r="A4" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="n" s="2">
-        <v>20.0</v>
+      <c r="B4" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="14">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
